--- a/documents/h_log.xlsx
+++ b/documents/h_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuanxiaowei\大学\大三下\工科创4A\code\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90C452D-9252-4769-8D23-1C0F27582A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0893E-6FBC-4D2E-A9BA-2BCC2DFD2532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5304" yWindow="2712" windowWidth="23040" windowHeight="12120" xr2:uid="{6741EBC2-E793-447B-889B-2F4FCAAB5C8F}"/>
   </bookViews>
@@ -2487,7 +2487,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/documents/h_log.xlsx
+++ b/documents/h_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\yuanxiaowei\大学\大三下\工科创4A\code\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0893E-6FBC-4D2E-A9BA-2BCC2DFD2532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA52253-99DF-41F0-ABA6-E826C5575245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5304" yWindow="2712" windowWidth="23040" windowHeight="12120" xr2:uid="{6741EBC2-E793-447B-889B-2F4FCAAB5C8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6741EBC2-E793-447B-889B-2F4FCAAB5C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,6 +121,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>外框</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -449,6 +478,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>外框面积</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -511,6 +595,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -576,9 +716,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -616,6 +754,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>内框</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,6 +1010,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内框面积</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -905,6 +1127,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -970,12 +1248,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2114,16 +2387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2150,15 +2423,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2487,7 +2760,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2763,6 +3036,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>